--- a/results/prelimDead.xlsx
+++ b/results/prelimDead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CBF6B-8243-4F41-8108-C896C926A24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39294D2-7A02-4615-8D32-5159754FF546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="4450" windowWidth="22050" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="B1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +583,7 @@
         <v>0.94554510000000003</v>
       </c>
       <c r="J3" s="4">
-        <v>0.98</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="K3" s="5">
         <v>0.95</v>
@@ -633,7 +633,7 @@
         <v>0.94187480000000001</v>
       </c>
       <c r="J4" s="6">
-        <v>0.98</v>
+        <v>0.9345</v>
       </c>
       <c r="K4" s="6">
         <v>0.9</v>
@@ -683,7 +683,7 @@
         <v>0.85793220000000003</v>
       </c>
       <c r="J5" s="4">
-        <v>27.550879999999999</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="K5" s="4">
         <v>0.72</v>
@@ -698,7 +698,7 @@
         <v>134.6609</v>
       </c>
       <c r="O5" s="4">
-        <v>49.52</v>
+        <v>149.52000000000001</v>
       </c>
       <c r="P5" s="4">
         <v>88.01</v>
@@ -733,7 +733,7 @@
         <v>0.90796560000000004</v>
       </c>
       <c r="J6" s="4">
-        <v>15.12623</v>
+        <v>0.9012</v>
       </c>
       <c r="K6" s="4">
         <v>0.88</v>
@@ -748,7 +748,7 @@
         <v>104.85550000000001</v>
       </c>
       <c r="O6" s="4">
-        <v>33.229999999999997</v>
+        <v>93.03</v>
       </c>
       <c r="P6" s="6">
         <v>72.490340000000003</v>
@@ -783,7 +783,7 @@
         <v>0.92772600000000005</v>
       </c>
       <c r="J7" s="4">
-        <v>12.526770000000001</v>
+        <v>0.89680000000000004</v>
       </c>
       <c r="K7" s="4">
         <v>0.82</v>
@@ -798,7 +798,7 @@
         <v>214.2861</v>
       </c>
       <c r="O7" s="4">
-        <v>29.23</v>
+        <v>58.23</v>
       </c>
       <c r="P7" s="4">
         <v>19.6187</v>
